--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1046052.023049761</v>
+        <v>-1048903.069417438</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12428790.18560207</v>
+        <v>12428790.18560208</v>
       </c>
     </row>
     <row r="8">
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>15.95792946088009</v>
       </c>
       <c r="W2" t="n">
         <v>255.0853779233022</v>
       </c>
       <c r="X2" t="n">
-        <v>228.6097925758461</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.0853779233022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>42.74184733307263</v>
+        <v>29.81687012829163</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="V4" t="n">
-        <v>110.7330203741407</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>255.0853779233022</v>
+        <v>229.5917736636664</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G5" t="n">
-        <v>72.63544656439271</v>
+        <v>116.9725659584295</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.250636654779662</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>57.13362034606546</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>147.1900136261376</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>21.25023298819346</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>93.65588946083848</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>79.50901491398272</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>161.3966950838116</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.21237518143202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>162.9604065236923</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.9590635773716</v>
       </c>
       <c r="H11" t="n">
-        <v>284.7489014006473</v>
+        <v>284.7489014006474</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>87.25109972946095</v>
       </c>
       <c r="T11" t="n">
-        <v>95.2323815340476</v>
+        <v>199.7039169015719</v>
       </c>
       <c r="U11" t="n">
         <v>250.9181589928154</v>
@@ -1464,10 +1464,10 @@
         <v>134.4843995464158</v>
       </c>
       <c r="H12" t="n">
-        <v>84.62238725324096</v>
+        <v>84.62238725324099</v>
       </c>
       <c r="I12" t="n">
-        <v>1.08346205333531</v>
+        <v>1.08346205333541</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>118.5763153708283</v>
+        <v>118.5763153708284</v>
       </c>
       <c r="T12" t="n">
         <v>188.6404783008108</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5939911925235</v>
       </c>
       <c r="H13" t="n">
-        <v>121.6843752072157</v>
+        <v>140.9157686321241</v>
       </c>
       <c r="I13" t="n">
-        <v>83.36650353713176</v>
+        <v>83.36650353713185</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>69.51608711611593</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>31.84681281389039</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1882845474399</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518785</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444149</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.05096575280744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560541</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>73.9504633112418</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>98.00068573248018</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265263</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261742</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545294</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.40683023386418</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="C2" t="n">
-        <v>20.40683023386418</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="D2" t="n">
-        <v>20.40683023386418</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="E2" t="n">
-        <v>20.40683023386418</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="F2" t="n">
-        <v>20.40683023386418</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="G2" t="n">
-        <v>20.40683023386418</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="H2" t="n">
         <v>20.40683023386418</v>
@@ -4328,19 +4328,19 @@
         <v>20.40683023386418</v>
       </c>
       <c r="J2" t="n">
-        <v>101.5286049718923</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K2" t="n">
-        <v>184.0917595464847</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L2" t="n">
-        <v>323.4204153877379</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M2" t="n">
-        <v>510.1198282131455</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N2" t="n">
-        <v>704.4540411051279</v>
+        <v>702.7668276125698</v>
       </c>
       <c r="O2" t="n">
         <v>874.6230664220874</v>
@@ -4358,22 +4358,22 @@
         <v>1020.341511693209</v>
       </c>
       <c r="T2" t="n">
-        <v>1020.341511693209</v>
+        <v>805.54164996092</v>
       </c>
       <c r="U2" t="n">
-        <v>766.6498084383599</v>
+        <v>551.8499467060709</v>
       </c>
       <c r="V2" t="n">
-        <v>766.6498084383599</v>
+        <v>535.7308260385153</v>
       </c>
       <c r="W2" t="n">
-        <v>508.9878105360343</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="X2" t="n">
         <v>278.0688281361897</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.40683023386418</v>
+        <v>278.0688281361897</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338.9494205349064</v>
+        <v>584.351223998842</v>
       </c>
       <c r="C3" t="n">
-        <v>164.4963912537794</v>
+        <v>584.351223998842</v>
       </c>
       <c r="D3" t="n">
-        <v>164.4963912537794</v>
+        <v>435.4168143375907</v>
       </c>
       <c r="E3" t="n">
-        <v>164.4963912537794</v>
+        <v>435.4168143375907</v>
       </c>
       <c r="F3" t="n">
-        <v>164.4963912537794</v>
+        <v>288.8822563644757</v>
       </c>
       <c r="G3" t="n">
-        <v>164.4963912537794</v>
+        <v>151.4408587236976</v>
       </c>
       <c r="H3" t="n">
-        <v>63.58041339858401</v>
+        <v>50.52488086850219</v>
       </c>
       <c r="I3" t="n">
         <v>20.40683023386418</v>
       </c>
       <c r="J3" t="n">
-        <v>20.40683023386418</v>
+        <v>139.0660820907598</v>
       </c>
       <c r="K3" t="n">
-        <v>88.01464989722122</v>
+        <v>206.6739017541169</v>
       </c>
       <c r="L3" t="n">
-        <v>225.2442479129152</v>
+        <v>343.9034997698108</v>
       </c>
       <c r="M3" t="n">
-        <v>404.74158426752</v>
+        <v>523.4008361244156</v>
       </c>
       <c r="N3" t="n">
-        <v>603.3983259201847</v>
+        <v>722.0575777770803</v>
       </c>
       <c r="O3" t="n">
-        <v>762.9106385889453</v>
+        <v>881.5698904458409</v>
       </c>
       <c r="P3" t="n">
-        <v>871.6002661162441</v>
+        <v>990.2595179731397</v>
       </c>
       <c r="Q3" t="n">
         <v>1020.341511693209</v>
       </c>
       <c r="R3" t="n">
-        <v>999.2296120953957</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S3" t="n">
-        <v>999.2296120953957</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T3" t="n">
-        <v>802.2403162554833</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U3" t="n">
-        <v>574.1015287666492</v>
+        <v>792.2027242043748</v>
       </c>
       <c r="V3" t="n">
-        <v>338.9494205349064</v>
+        <v>792.2027242043748</v>
       </c>
       <c r="W3" t="n">
-        <v>338.9494205349064</v>
+        <v>792.2027242043748</v>
       </c>
       <c r="X3" t="n">
-        <v>338.9494205349064</v>
+        <v>584.351223998842</v>
       </c>
       <c r="Y3" t="n">
-        <v>338.9494205349064</v>
+        <v>584.351223998842</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.9097320312362</v>
+        <v>174.6614733340991</v>
       </c>
       <c r="C4" t="n">
-        <v>312.9097320312362</v>
+        <v>174.6614733340991</v>
       </c>
       <c r="D4" t="n">
-        <v>162.7930926189005</v>
+        <v>174.6614733340991</v>
       </c>
       <c r="E4" t="n">
-        <v>162.7930926189005</v>
+        <v>174.6614733340991</v>
       </c>
       <c r="F4" t="n">
-        <v>162.7930926189005</v>
+        <v>174.6614733340991</v>
       </c>
       <c r="G4" t="n">
-        <v>162.7930926189005</v>
+        <v>174.6614733340991</v>
       </c>
       <c r="H4" t="n">
-        <v>162.7930926189005</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I4" t="n">
-        <v>38.2814179932268</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J4" t="n">
         <v>20.40683023386418</v>
@@ -4513,25 +4513,25 @@
         <v>889.8635504126116</v>
       </c>
       <c r="S4" t="n">
-        <v>682.423265665017</v>
+        <v>889.8635504126116</v>
       </c>
       <c r="T4" t="n">
-        <v>682.423265665017</v>
+        <v>664.2343537249766</v>
       </c>
       <c r="U4" t="n">
-        <v>682.423265665017</v>
+        <v>406.572355822651</v>
       </c>
       <c r="V4" t="n">
-        <v>570.5717299335618</v>
+        <v>406.572355822651</v>
       </c>
       <c r="W4" t="n">
-        <v>312.9097320312362</v>
+        <v>174.6614733340991</v>
       </c>
       <c r="X4" t="n">
-        <v>312.9097320312362</v>
+        <v>174.6614733340991</v>
       </c>
       <c r="Y4" t="n">
-        <v>312.9097320312362</v>
+        <v>174.6614733340991</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.7894056603329</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C5" t="n">
-        <v>367.7894056603329</v>
+        <v>788.477863438847</v>
       </c>
       <c r="D5" t="n">
-        <v>101.411749093155</v>
+        <v>788.477863438847</v>
       </c>
       <c r="E5" t="n">
-        <v>101.411749093155</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="F5" t="n">
-        <v>94.46624834395151</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946886</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>634.1670622275108</v>
+        <v>788.477863438847</v>
       </c>
       <c r="W5" t="n">
-        <v>634.1670622275108</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X5" t="n">
-        <v>367.7894056603329</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.7894056603329</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365.3801818123525</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C6" t="n">
-        <v>365.3801818123525</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D6" t="n">
-        <v>365.3801818123525</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>206.142726806897</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>206.142726806897</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>68.7460403559642</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004805</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
         <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212814</v>
+        <v>858.0464416374626</v>
       </c>
       <c r="U6" t="n">
-        <v>808.383790249628</v>
+        <v>858.0464416374626</v>
       </c>
       <c r="V6" t="n">
-        <v>573.2316820178853</v>
+        <v>800.3357140151743</v>
       </c>
       <c r="W6" t="n">
-        <v>573.2316820178853</v>
+        <v>546.0983572869726</v>
       </c>
       <c r="X6" t="n">
-        <v>365.3801818123525</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="Y6" t="n">
-        <v>365.3801818123525</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.8013764551914</v>
+        <v>469.821524546946</v>
       </c>
       <c r="C7" t="n">
-        <v>331.1245950146483</v>
+        <v>469.821524546946</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>469.821524546946</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434486</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434486</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434486</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434486</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407072</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407072</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T7" t="n">
-        <v>700.5939555987215</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="U7" t="n">
-        <v>700.5939555987215</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="V7" t="n">
-        <v>700.5939555987215</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="W7" t="n">
-        <v>700.5939555987215</v>
+        <v>697.8110754449633</v>
       </c>
       <c r="X7" t="n">
-        <v>700.5939555987215</v>
+        <v>469.821524546946</v>
       </c>
       <c r="Y7" t="n">
-        <v>479.8013764551914</v>
+        <v>469.821524546946</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.669246337128</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C8" t="n">
-        <v>994.7067293967168</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>994.7067293967168</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>608.9184767984725</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>197.932572008865</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4814,40 +4814,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583054</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.80857831294</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.80857831294</v>
+        <v>1733.111475321976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.669246337128</v>
+        <v>1342.972143346165</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>812.8918298888576</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8918298888576</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765219</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>951.2285202135537</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387889</v>
+        <v>951.2285202135537</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387889</v>
+        <v>951.2285202135537</v>
       </c>
       <c r="X10" t="n">
-        <v>859.5709967387889</v>
+        <v>951.2285202135537</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.8918298888576</v>
+        <v>951.2285202135537</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2315.715571179067</v>
+        <v>2122.05634380837</v>
       </c>
       <c r="C11" t="n">
-        <v>1946.753054238656</v>
+        <v>1753.093826867958</v>
       </c>
       <c r="D11" t="n">
         <v>1588.487355631905</v>
@@ -5027,64 +5027,64 @@
         <v>1202.699103033661</v>
       </c>
       <c r="F11" t="n">
-        <v>791.7131982440534</v>
+        <v>791.7131982440533</v>
       </c>
       <c r="G11" t="n">
         <v>377.613134024486</v>
       </c>
       <c r="H11" t="n">
-        <v>89.98798109453922</v>
+        <v>89.98798109453911</v>
       </c>
       <c r="I11" t="n">
-        <v>89.98798109453922</v>
+        <v>89.98798109453911</v>
       </c>
       <c r="J11" t="n">
-        <v>359.7548050296177</v>
+        <v>359.7548050296168</v>
       </c>
       <c r="K11" t="n">
-        <v>814.8038625192562</v>
+        <v>814.8038625192544</v>
       </c>
       <c r="L11" t="n">
-        <v>1416.234218383237</v>
+        <v>1416.234218383235</v>
       </c>
       <c r="M11" t="n">
-        <v>2117.110809949299</v>
+        <v>2117.110809949297</v>
       </c>
       <c r="N11" t="n">
-        <v>2833.94212588965</v>
+        <v>2833.942125889647</v>
       </c>
       <c r="O11" t="n">
-        <v>3497.490349341708</v>
+        <v>3497.490349341703</v>
       </c>
       <c r="P11" t="n">
-        <v>4029.312405468369</v>
+        <v>4029.312405468363</v>
       </c>
       <c r="Q11" t="n">
-        <v>4380.51587474985</v>
+        <v>4380.515874749844</v>
       </c>
       <c r="R11" t="n">
-        <v>4499.399054726961</v>
+        <v>4499.399054726955</v>
       </c>
       <c r="S11" t="n">
-        <v>4499.399054726961</v>
+        <v>4411.266630757803</v>
       </c>
       <c r="T11" t="n">
-        <v>4403.204729945095</v>
+        <v>4209.545502574397</v>
       </c>
       <c r="U11" t="n">
-        <v>4149.752044093766</v>
+        <v>3956.092816723068</v>
       </c>
       <c r="V11" t="n">
-        <v>3818.689156750195</v>
+        <v>3625.029929379497</v>
       </c>
       <c r="W11" t="n">
-        <v>3465.920501480081</v>
+        <v>3272.261274109383</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.454743219001</v>
+        <v>2898.795515848303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2702.315411243189</v>
+        <v>2508.656183872492</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.5595460506769</v>
       </c>
       <c r="H12" t="n">
-        <v>91.08238720901933</v>
+        <v>91.08238720901932</v>
       </c>
       <c r="I12" t="n">
-        <v>89.98798109453922</v>
+        <v>89.98798109453911</v>
       </c>
       <c r="J12" t="n">
-        <v>231.8414063855217</v>
+        <v>89.98798109453911</v>
       </c>
       <c r="K12" t="n">
-        <v>552.446329013891</v>
+        <v>89.98798109453911</v>
       </c>
       <c r="L12" t="n">
-        <v>1029.861753747757</v>
+        <v>567.4034058284043</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.339904353625</v>
+        <v>1143.881556434272</v>
       </c>
       <c r="N12" t="n">
-        <v>2212.484361157504</v>
+        <v>1750.02601323815</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.132038776488</v>
+        <v>2282.309976083269</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.132038776488</v>
+        <v>2330.399777893556</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.132038776488</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>910.9659442568505</v>
+        <v>1097.658251951226</v>
       </c>
       <c r="C13" t="n">
-        <v>742.0297613289437</v>
+        <v>928.7220690233191</v>
       </c>
       <c r="D13" t="n">
-        <v>591.9131219166079</v>
+        <v>778.6054296109834</v>
       </c>
       <c r="E13" t="n">
-        <v>444.0000283342148</v>
+        <v>630.6923360285903</v>
       </c>
       <c r="F13" t="n">
-        <v>297.1100808363044</v>
+        <v>483.8023885306799</v>
       </c>
       <c r="G13" t="n">
-        <v>297.1100808363044</v>
+        <v>316.5357307604542</v>
       </c>
       <c r="H13" t="n">
-        <v>174.1965705259855</v>
+        <v>174.1965705259854</v>
       </c>
       <c r="I13" t="n">
-        <v>89.98798109453922</v>
+        <v>89.98798109453911</v>
       </c>
       <c r="J13" t="n">
-        <v>165.3347854773414</v>
+        <v>165.3347854773411</v>
       </c>
       <c r="K13" t="n">
-        <v>418.9895674155935</v>
+        <v>418.9895674155929</v>
       </c>
       <c r="L13" t="n">
-        <v>799.1067926146569</v>
+        <v>799.1067926146561</v>
       </c>
       <c r="M13" t="n">
-        <v>1210.276233313878</v>
+        <v>1210.276233313877</v>
       </c>
       <c r="N13" t="n">
-        <v>1617.103600144012</v>
+        <v>1617.10360014401</v>
       </c>
       <c r="O13" t="n">
-        <v>1976.858224814567</v>
+        <v>1976.858224814565</v>
       </c>
       <c r="P13" t="n">
-        <v>2261.169773523238</v>
+        <v>2261.169773523236</v>
       </c>
       <c r="Q13" t="n">
-        <v>2374.57727267193</v>
+        <v>2374.577272671928</v>
       </c>
       <c r="R13" t="n">
-        <v>2374.57727267193</v>
+        <v>2304.359002857669</v>
       </c>
       <c r="S13" t="n">
-        <v>2374.57727267193</v>
+        <v>2272.190505065861</v>
       </c>
       <c r="T13" t="n">
-        <v>2374.57727267193</v>
+        <v>2272.190505065861</v>
       </c>
       <c r="U13" t="n">
-        <v>2085.498197371485</v>
+        <v>2272.190505065861</v>
       </c>
       <c r="V13" t="n">
-        <v>1830.813709165598</v>
+        <v>2017.506016859974</v>
       </c>
       <c r="W13" t="n">
-        <v>1541.396539128638</v>
+        <v>1728.088846823013</v>
       </c>
       <c r="X13" t="n">
-        <v>1313.40698823062</v>
+        <v>1500.099295924996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1092.61440908709</v>
+        <v>1279.306716781466</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362697</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,10 +6023,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>416.6057892068301</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,16 +6361,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,22 +7120,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7336,19 +7336,19 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7558,7 +7558,7 @@
         <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,28 +7643,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7737,7 +7737,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319336</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,28 +7804,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.49244923701501</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58.78819318392613</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.704256053088926</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>127.2770751262504</v>
+        <v>7.419244967769966</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069106</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13.16088434182774</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>66.92593198228207</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>311.7943290092548</v>
       </c>
       <c r="W2" t="n">
         <v>94.15559079411076</v>
       </c>
       <c r="X2" t="n">
-        <v>141.1213081026229</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.1525607327513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>191.7226350969907</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.463900084780676</v>
+        <v>4.463900084780903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.25109972946082</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>104.4715353675243</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5939911925235</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19.2313934249083</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>69.51608711611581</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>182.2436315451728</v>
+        <v>150.3968187312825</v>
       </c>
       <c r="T13" t="n">
         <v>217.7039127192853</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1882845474399</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.5336875992874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-5.846434575361833e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.501643547353501e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.577404873387422e-12</v>
+        <v>-7.531752999057062e-13</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1054388.448264891</v>
+        <v>1054388.448264892</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1191902.905499943</v>
+        <v>1191902.905499941</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1218039.227115158</v>
+        <v>1218039.227115157</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173608.1944968576</v>
+        <v>173608.1944968578</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>197430.5963199658</v>
+        <v>197430.5963199656</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225015</v>
@@ -26329,22 +26329,22 @@
         <v>201786.6499225015</v>
       </c>
       <c r="H2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="I2" t="n">
         <v>201786.6499225015</v>
-      </c>
-      <c r="I2" t="n">
-        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
@@ -26366,19 +26366,19 @@
         <v>657366.2625808548</v>
       </c>
       <c r="C3" t="n">
-        <v>21526.81581402924</v>
+        <v>21526.81581402961</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>462074.8317843589</v>
+        <v>462074.831784357</v>
       </c>
       <c r="F3" t="n">
-        <v>44331.86993325264</v>
+        <v>44331.8699332542</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>66741.55862136451</v>
       </c>
       <c r="K3" t="n">
-        <v>2220.700322863139</v>
+        <v>2220.700322863209</v>
       </c>
       <c r="L3" t="n">
-        <v>114810.3641312015</v>
+        <v>114810.3641312016</v>
       </c>
       <c r="M3" t="n">
-        <v>120680.7580098864</v>
+        <v>120680.7580098858</v>
       </c>
       <c r="N3" t="n">
-        <v>11721.84481010496</v>
+        <v>11721.84481010541</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179794.2645965275</v>
+        <v>179794.2645965277</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982314</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8092.443599094226</v>
+        <v>8092.443599094225</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731923</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731952</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731994</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731984</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.1716898255</v>
+        <v>16108.17168982546</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982551</v>
       </c>
       <c r="N4" t="n">
         <v>16108.17168982546</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982547</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982543</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>62074.5699651066</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>97368.27347785654</v>
+        <v>97368.27347785639</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725626.9026456312</v>
+        <v>-725943.4251253235</v>
       </c>
       <c r="C6" t="n">
-        <v>-126068.043950456</v>
+        <v>-126068.0439504563</v>
       </c>
       <c r="D6" t="n">
-        <v>-413123.6940415811</v>
+        <v>-413123.6940415812</v>
       </c>
       <c r="E6" t="n">
-        <v>-370104.9525413439</v>
+        <v>-370183.2510028032</v>
       </c>
       <c r="F6" t="n">
-        <v>48214.93773860981</v>
+        <v>48180.19981317254</v>
       </c>
       <c r="G6" t="n">
-        <v>92546.80767186223</v>
+        <v>92512.06974642669</v>
       </c>
       <c r="H6" t="n">
-        <v>92546.80767186252</v>
+        <v>92512.06974642677</v>
       </c>
       <c r="I6" t="n">
-        <v>92546.80767186247</v>
+        <v>92512.06974642669</v>
       </c>
       <c r="J6" t="n">
-        <v>25805.24905049797</v>
+        <v>25770.51112506227</v>
       </c>
       <c r="K6" t="n">
-        <v>90326.10734899926</v>
+        <v>90291.36942356359</v>
       </c>
       <c r="L6" t="n">
-        <v>-28822.20920887117</v>
+        <v>-28822.20920887122</v>
       </c>
       <c r="M6" t="n">
-        <v>-34692.60308755637</v>
+        <v>-34692.60308755552</v>
       </c>
       <c r="N6" t="n">
-        <v>74266.31011222512</v>
+        <v>74266.31011222469</v>
       </c>
       <c r="O6" t="n">
         <v>85988.15492233005</v>
       </c>
       <c r="P6" t="n">
-        <v>85988.15492233037</v>
+        <v>85988.1549223304</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1329.238892018657</v>
+        <v>1329.238892018655</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>255.0853779233022</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.84976368174</v>
+        <v>1124.849763681739</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,13 +26917,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,22 +26960,22 @@
         <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>20.57891343141296</v>
+        <v>20.5789134314133</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>395.1739999011177</v>
+        <v>395.173999901116</v>
       </c>
       <c r="F3" t="n">
-        <v>38.73660832301698</v>
+        <v>38.73660832301834</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>255.0853779233022</v>
       </c>
       <c r="C4" t="n">
-        <v>8.628502078203837</v>
+        <v>8.628502078204008</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>484.2649315817016</v>
+        <v>484.2649315816997</v>
       </c>
       <c r="F4" t="n">
-        <v>47.85852441790803</v>
+        <v>47.85852441790962</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>255.0853779233023</v>
       </c>
       <c r="K4" t="n">
-        <v>8.628502078203837</v>
+        <v>8.628502078204008</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985324</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>484.2649315817018</v>
+        <v>484.2649315816995</v>
       </c>
       <c r="N4" t="n">
-        <v>47.85852441790803</v>
+        <v>47.85852441790985</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>255.0853779233022</v>
       </c>
       <c r="K4" t="n">
-        <v>8.628502078203837</v>
+        <v>8.628502078204008</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>484.2649315817016</v>
+        <v>484.2649315816997</v>
       </c>
       <c r="N4" t="n">
-        <v>47.85852441790803</v>
+        <v>47.85852441790962</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>46.79462181008557</v>
       </c>
       <c r="I2" t="n">
         <v>118.4960408938903</v>
@@ -27430,13 +27430,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>145.7259311326839</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.703961106514043</v>
+        <v>15.62893831129504</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>31.17527673479475</v>
       </c>
       <c r="V4" t="n">
-        <v>141.4046229496873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>31.43762041328876</v>
+        <v>56.9312246729246</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>340.1987280813173</v>
+        <v>295.8616086872805</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862882</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>96.22868361643009</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>175.6669668033598</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>20.05680747249019</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>265.2727653483976</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>289.0779522026421</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>332.0386878589712</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>124.8304590373891</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>172.3722781706628</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-5.142369289011372e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.34367393776344</v>
+        <v>5.343673937763435</v>
       </c>
       <c r="H11" t="n">
-        <v>54.72590071511985</v>
+        <v>54.72590071511979</v>
       </c>
       <c r="I11" t="n">
-        <v>206.0119894856252</v>
+        <v>206.011989485625</v>
       </c>
       <c r="J11" t="n">
-        <v>453.5376458752502</v>
+        <v>453.5376458752497</v>
       </c>
       <c r="K11" t="n">
-        <v>679.7353636607768</v>
+        <v>679.7353636607761</v>
       </c>
       <c r="L11" t="n">
-        <v>843.2718249336049</v>
+        <v>843.271824933604</v>
       </c>
       <c r="M11" t="n">
-        <v>938.3023863243053</v>
+        <v>938.3023863243044</v>
       </c>
       <c r="N11" t="n">
-        <v>953.4850998999758</v>
+        <v>953.4850998999749</v>
       </c>
       <c r="O11" t="n">
-        <v>900.3489421813406</v>
+        <v>900.3489421813396</v>
       </c>
       <c r="P11" t="n">
-        <v>768.4269918428055</v>
+        <v>768.4269918428047</v>
       </c>
       <c r="Q11" t="n">
-        <v>577.0566689466521</v>
+        <v>577.0566689466515</v>
       </c>
       <c r="R11" t="n">
-        <v>335.669557993033</v>
+        <v>335.6695579930326</v>
       </c>
       <c r="S11" t="n">
-        <v>121.7689698567845</v>
+        <v>121.7689698567844</v>
       </c>
       <c r="T11" t="n">
-        <v>23.39193266255947</v>
+        <v>23.39193266255945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4274939150210751</v>
+        <v>0.4274939150210747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.859117616794847</v>
+        <v>2.859117616794844</v>
       </c>
       <c r="H12" t="n">
-        <v>27.6130569832555</v>
+        <v>27.61305698325547</v>
       </c>
       <c r="I12" t="n">
-        <v>98.43891794666469</v>
+        <v>98.43891794666459</v>
       </c>
       <c r="J12" t="n">
-        <v>270.1239148393763</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>461.6847951646311</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>620.7921825413548</v>
+        <v>620.7921825413542</v>
       </c>
       <c r="M12" t="n">
-        <v>724.4351961501678</v>
+        <v>724.4351961501671</v>
       </c>
       <c r="N12" t="n">
-        <v>743.6088401680597</v>
+        <v>743.608840168059</v>
       </c>
       <c r="O12" t="n">
-        <v>486.6848076959428</v>
+        <v>680.2568129748679</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>182.5499647984586</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>364.9638557859524</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>53.10685573300951</v>
+        <v>53.10685573300945</v>
       </c>
       <c r="T12" t="n">
-        <v>11.5242503940108</v>
+        <v>11.52425039401079</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1880998432101874</v>
+        <v>0.1880998432101872</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.396988165935282</v>
+        <v>2.39698816593528</v>
       </c>
       <c r="H13" t="n">
-        <v>21.31140387531553</v>
+        <v>21.31140387531551</v>
       </c>
       <c r="I13" t="n">
-        <v>72.08397139012652</v>
+        <v>72.08397139012644</v>
       </c>
       <c r="J13" t="n">
-        <v>169.4670633316245</v>
+        <v>169.4670633316243</v>
       </c>
       <c r="K13" t="n">
-        <v>278.4864432786628</v>
+        <v>278.4864432786625</v>
       </c>
       <c r="L13" t="n">
-        <v>356.366767870051</v>
+        <v>356.3667678700507</v>
       </c>
       <c r="M13" t="n">
-        <v>375.7387904111097</v>
+        <v>375.7387904111093</v>
       </c>
       <c r="N13" t="n">
-        <v>366.804561792624</v>
+        <v>366.8045617926236</v>
       </c>
       <c r="O13" t="n">
-        <v>338.8033818541981</v>
+        <v>338.8033818541977</v>
       </c>
       <c r="P13" t="n">
-        <v>289.904823269118</v>
+        <v>289.9048232691177</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.7150726948172</v>
+        <v>200.715072694817</v>
       </c>
       <c r="R13" t="n">
-        <v>107.7773042610537</v>
+        <v>107.7773042610536</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77296649179941</v>
+        <v>41.77296649179937</v>
       </c>
       <c r="T13" t="n">
-        <v>10.2416767089962</v>
+        <v>10.24167670899619</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1307448090510156</v>
+        <v>0.1307448090510154</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34457,10 +34457,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.94118660406885</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
         <v>83.39712583292157</v>
@@ -34708,10 +34708,10 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605652</v>
+        <v>173.5921604136541</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874005</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K3" t="n">
         <v>68.29072693268387</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.2436824009746</v>
+        <v>30.38585224249419</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>272.4917413485639</v>
+        <v>272.4917413485634</v>
       </c>
       <c r="K11" t="n">
-        <v>459.6455126157962</v>
+        <v>459.6455126157956</v>
       </c>
       <c r="L11" t="n">
-        <v>607.5054099636177</v>
+        <v>607.5054099636168</v>
       </c>
       <c r="M11" t="n">
-        <v>707.9561530970326</v>
+        <v>707.9561530970317</v>
       </c>
       <c r="N11" t="n">
-        <v>724.0720363033849</v>
+        <v>724.072036303384</v>
       </c>
       <c r="O11" t="n">
-        <v>670.2507307596538</v>
+        <v>670.2507307596528</v>
       </c>
       <c r="P11" t="n">
-        <v>537.1939960875359</v>
+        <v>537.1939960875352</v>
       </c>
       <c r="Q11" t="n">
-        <v>354.7509790722025</v>
+        <v>354.750979072202</v>
       </c>
       <c r="R11" t="n">
-        <v>120.0840201789009</v>
+        <v>120.0840201789005</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>143.2862881727096</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>323.8433561902721</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>482.2378027614806</v>
+        <v>482.2378027614801</v>
       </c>
       <c r="M12" t="n">
-        <v>582.3011622281495</v>
+        <v>582.3011622281488</v>
       </c>
       <c r="N12" t="n">
-        <v>612.2671280847264</v>
+        <v>612.2671280847258</v>
       </c>
       <c r="O12" t="n">
-        <v>344.0885632514984</v>
+        <v>537.6605685304235</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>48.57555738412838</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>224.9820816999309</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>76.1078832149517</v>
+        <v>76.1078832149515</v>
       </c>
       <c r="K13" t="n">
-        <v>256.2169514527799</v>
+        <v>256.2169514527797</v>
       </c>
       <c r="L13" t="n">
-        <v>383.9567931303671</v>
+        <v>383.9567931303668</v>
       </c>
       <c r="M13" t="n">
-        <v>415.3226673729503</v>
+        <v>415.3226673729499</v>
       </c>
       <c r="N13" t="n">
-        <v>410.9367341718525</v>
+        <v>410.9367341718522</v>
       </c>
       <c r="O13" t="n">
-        <v>363.3885097682377</v>
+        <v>363.3885097682374</v>
       </c>
       <c r="P13" t="n">
-        <v>287.1833825340115</v>
+        <v>287.1833825340112</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.5530294431228</v>
+        <v>114.5530294431226</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38105,10 +38105,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
